--- a/svc/BW/summary.xlsx
+++ b/svc/BW/summary.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="SVC" sheetId="2" r:id="rId2"/>
+    <sheet name="RF" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>F1_Average</t>
   </si>
@@ -53,6 +54,15 @@
   </si>
   <si>
     <t>5 folds average score</t>
+  </si>
+  <si>
+    <t>max_depth</t>
+  </si>
+  <si>
+    <t>F1 avg</t>
+  </si>
+  <si>
+    <t>min_samples_split</t>
   </si>
 </sst>
 </file>
@@ -426,7 +436,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,7 +518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -588,4 +598,233 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>9.2700000000000005E-2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.1650000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.1241</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3.3599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.1653</v>
+      </c>
+      <c r="C6" s="2">
+        <v>7.3952251143996311E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.21229999999999999</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.1245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.25659999999999999</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.1578</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.2944</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.1973</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.32519999999999999</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.22869999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.36849999999999988</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.31289136464631923</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.3841</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.32561767167691041</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.37469999999999998</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.29837129768551462</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>34</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.3715</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.29186799567032268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.36080000000000001</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.28223917040767582</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>56</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.35589999999999999</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.27763280930972362</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>67</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.34570000000000001</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.26041291413217588</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>78</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.33810000000000001</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.24306277238322899</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>89</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.33879999999999999</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.24731605770538909</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>100</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.33279999999999998</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.2292824950860482</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/svc/BW/summary.xlsx
+++ b/svc/BW/summary.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>F1_Average</t>
   </si>
@@ -47,15 +47,6 @@
     <t>c</t>
   </si>
   <si>
-    <t>Acc</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>5 folds average score</t>
-  </si>
-  <si>
     <t>max_depth</t>
   </si>
   <si>
@@ -63,13 +54,16 @@
   </si>
   <si>
     <t>min_samples_split</t>
+  </si>
+  <si>
+    <t>min_samples_leaf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,13 +79,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -121,12 +130,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -436,77 +460,77 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="5">
+        <v>0.39119999999999999</v>
+      </c>
+      <c r="C2" s="5">
         <v>0.36145835338386861</v>
       </c>
-      <c r="C2" s="2">
-        <v>0.39119999999999999</v>
-      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="7">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="C3" s="7">
         <v>0.37689907376950638</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.45300000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
-        <v>7.3952251143996311E-2</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.1653</v>
+      <c r="B4" s="5">
+        <v>0.37719999999999998</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.31969999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
-        <v>0.24619041131955979</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.34039999999999998</v>
+      <c r="B5" s="5">
+        <v>0.36880000000000002</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.27929999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="5">
+        <v>0.33119999999999999</v>
+      </c>
+      <c r="C6" s="5">
         <v>0.27833316119999879</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.33119999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -519,93 +543,97 @@
   <dimension ref="A2:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="2" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>0.45300000000000001</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <v>0.37689907376950638</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="5">
         <v>1.5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>0.46750000000000003</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>0.40479999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>0.47699999999999998</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <v>0.56699999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="5">
         <v>2.5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>0.4753</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <v>0.4153</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="5">
         <v>3</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>0.4768</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <v>0.42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="4" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C24"/>
+  <dimension ref="A3:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,96 +644,96 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="5">
         <v>9.2700000000000005E-2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="5">
         <v>1.1650000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="5">
         <v>0.1241</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="5">
         <v>3.3599999999999998E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="5">
         <v>0.1653</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="5">
         <v>7.3952251143996311E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="5">
         <v>0.21229999999999999</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="5">
         <v>0.1245</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="5">
         <v>0.25659999999999999</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="5">
         <v>0.1578</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="5">
         <v>0.2944</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="5">
         <v>0.1973</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="5">
         <v>0.32519999999999999</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="5">
         <v>0.22869999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
+      <c r="A14" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>1</v>
@@ -718,10 +746,10 @@
       <c r="A15" s="1">
         <v>2</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="5">
         <v>0.36849999999999988</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="5">
         <v>0.31289136464631923</v>
       </c>
     </row>
@@ -729,10 +757,10 @@
       <c r="A16" s="1">
         <v>12</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="5">
         <v>0.3841</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="5">
         <v>0.32561767167691041</v>
       </c>
     </row>
@@ -740,10 +768,10 @@
       <c r="A17" s="1">
         <v>23</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="5">
         <v>0.37469999999999998</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="5">
         <v>0.29837129768551462</v>
       </c>
     </row>
@@ -751,10 +779,10 @@
       <c r="A18" s="1">
         <v>34</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="5">
         <v>0.3715</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="5">
         <v>0.29186799567032268</v>
       </c>
     </row>
@@ -762,10 +790,10 @@
       <c r="A19" s="1">
         <v>45</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="5">
         <v>0.36080000000000001</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="5">
         <v>0.28223917040767582</v>
       </c>
     </row>
@@ -773,10 +801,10 @@
       <c r="A20" s="1">
         <v>56</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="5">
         <v>0.35589999999999999</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="5">
         <v>0.27763280930972362</v>
       </c>
     </row>
@@ -784,10 +812,10 @@
       <c r="A21" s="1">
         <v>67</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="5">
         <v>0.34570000000000001</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="5">
         <v>0.26041291413217588</v>
       </c>
     </row>
@@ -795,10 +823,10 @@
       <c r="A22" s="1">
         <v>78</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="5">
         <v>0.33810000000000001</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="5">
         <v>0.24306277238322899</v>
       </c>
     </row>
@@ -806,10 +834,10 @@
       <c r="A23" s="1">
         <v>89</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="5">
         <v>0.33879999999999999</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="5">
         <v>0.24731605770538909</v>
       </c>
     </row>
@@ -817,11 +845,132 @@
       <c r="A24" s="1">
         <v>100</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="5">
         <v>0.33279999999999998</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="5">
         <v>0.2292824950860482</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>2</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0.3851</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.32793783539123222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>7</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0.3841</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0.31591938917883272</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>12</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0.374</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0.30487012406772063</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>18</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0.3538</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0.27477225651091253</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>23</v>
+      </c>
+      <c r="B32" s="5">
+        <v>0.34760000000000002</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0.2435728566991533</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>28</v>
+      </c>
+      <c r="B33" s="5">
+        <v>0.34610000000000002</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0.27122752844576797</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>34</v>
+      </c>
+      <c r="B34" s="5">
+        <v>0.33460000000000001</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0.23599589730728779</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>39</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0.3281</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0.23040729660530521</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>44</v>
+      </c>
+      <c r="B36" s="5">
+        <v>0.32450000000000001</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0.2257875491337997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>50</v>
+      </c>
+      <c r="B37" s="5">
+        <v>0.31819999999999998</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0.2167143897418097</v>
       </c>
     </row>
   </sheetData>

--- a/svc/BW/summary.xlsx
+++ b/svc/BW/summary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <t>NB</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
     <t>max_depth</t>
   </si>
   <si>
@@ -57,13 +54,16 @@
   </si>
   <si>
     <t>min_samples_leaf</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,15 +77,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -130,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -140,9 +131,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -482,21 +470,21 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>0.39119999999999999</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>0.36145835338386861</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>0.56699999999999995</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>0.37689907376950638</v>
       </c>
     </row>
@@ -504,10 +492,10 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>0.37719999999999998</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>0.31969999999999998</v>
       </c>
     </row>
@@ -515,10 +503,10 @@
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>0.36880000000000002</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>0.27929999999999999</v>
       </c>
     </row>
@@ -526,10 +514,10 @@
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>0.33119999999999999</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>0.27833316119999879</v>
       </c>
     </row>
@@ -540,10 +528,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C8"/>
+  <dimension ref="A2:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,7 +546,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -568,58 +556,113 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>0.45300000000000001</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>0.37689907376950638</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0.46750000000000003</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.40479999999999999</v>
+      <c r="A5" s="1">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.47939999999999988</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.42521726650059732</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>2</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0.47699999999999998</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0.56699999999999995</v>
+      <c r="A6" s="1">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.47439999999999999</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.41646134486531189</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="B7" s="5">
-        <v>0.4753</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0.4153</v>
+      <c r="A7" s="1">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.46829999999999999</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.41531380169216792</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>3</v>
-      </c>
-      <c r="B8" s="5">
-        <v>0.4768</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0.42</v>
+      <c r="A8" s="1">
+        <v>22</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.4667</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.41238961130750051</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>28</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.46279999999999999</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.40959642952418451</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>33</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.45929999999999999</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.41041735424800357</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>39</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.45440000000000003</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.40779642749707917</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>44</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.45290000000000002</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.40324322201235391</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>50</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.45140000000000002</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.40046789671247163</v>
       </c>
     </row>
   </sheetData>
@@ -632,7 +675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -644,96 +687,96 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="B4" s="4">
+        <v>9.2700000000000005E-2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.1650000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.1241</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3.3599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.1653</v>
+      </c>
+      <c r="C6" s="4">
+        <v>7.3952251143996311E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.21229999999999999</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.1245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.25659999999999999</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.1578</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.2944</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.1973</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.32519999999999999</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.22869999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
-        <v>9.2700000000000005E-2</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1.1650000000000001E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0.1241</v>
-      </c>
-      <c r="C5" s="5">
-        <v>3.3599999999999998E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0.1653</v>
-      </c>
-      <c r="C6" s="5">
-        <v>7.3952251143996311E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5">
-        <v>0.21229999999999999</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0.1245</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>5</v>
-      </c>
-      <c r="B8" s="5">
-        <v>0.25659999999999999</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0.1578</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>6</v>
-      </c>
-      <c r="B9" s="5">
-        <v>0.2944</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0.1973</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>7</v>
-      </c>
-      <c r="B10" s="5">
-        <v>0.32519999999999999</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0.22869999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>1</v>
@@ -746,10 +789,10 @@
       <c r="A15" s="1">
         <v>2</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>0.36849999999999988</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>0.31289136464631923</v>
       </c>
     </row>
@@ -757,10 +800,10 @@
       <c r="A16" s="1">
         <v>12</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>0.3841</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>0.32561767167691041</v>
       </c>
     </row>
@@ -768,10 +811,10 @@
       <c r="A17" s="1">
         <v>23</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>0.37469999999999998</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>0.29837129768551462</v>
       </c>
     </row>
@@ -779,10 +822,10 @@
       <c r="A18" s="1">
         <v>34</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>0.3715</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>0.29186799567032268</v>
       </c>
     </row>
@@ -790,10 +833,10 @@
       <c r="A19" s="1">
         <v>45</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>0.36080000000000001</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>0.28223917040767582</v>
       </c>
     </row>
@@ -801,10 +844,10 @@
       <c r="A20" s="1">
         <v>56</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>0.35589999999999999</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>0.27763280930972362</v>
       </c>
     </row>
@@ -812,10 +855,10 @@
       <c r="A21" s="1">
         <v>67</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>0.34570000000000001</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>0.26041291413217588</v>
       </c>
     </row>
@@ -823,10 +866,10 @@
       <c r="A22" s="1">
         <v>78</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>0.33810000000000001</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>0.24306277238322899</v>
       </c>
     </row>
@@ -834,10 +877,10 @@
       <c r="A23" s="1">
         <v>89</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>0.33879999999999999</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>0.24731605770538909</v>
       </c>
     </row>
@@ -845,16 +888,16 @@
       <c r="A24" s="1">
         <v>100</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>0.33279999999999998</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>0.2292824950860482</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>11</v>
+      <c r="A27" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>1</v>
@@ -867,10 +910,10 @@
       <c r="A28" s="1">
         <v>2</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>0.3851</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>0.32793783539123222</v>
       </c>
     </row>
@@ -878,10 +921,10 @@
       <c r="A29" s="1">
         <v>7</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <v>0.3841</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <v>0.31591938917883272</v>
       </c>
     </row>
@@ -889,10 +932,10 @@
       <c r="A30" s="1">
         <v>12</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>0.374</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>0.30487012406772063</v>
       </c>
     </row>
@@ -900,10 +943,10 @@
       <c r="A31" s="1">
         <v>18</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>0.3538</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <v>0.27477225651091253</v>
       </c>
     </row>
@@ -911,10 +954,10 @@
       <c r="A32" s="1">
         <v>23</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>0.34760000000000002</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>0.2435728566991533</v>
       </c>
     </row>
@@ -922,10 +965,10 @@
       <c r="A33" s="1">
         <v>28</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="4">
         <v>0.34610000000000002</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <v>0.27122752844576797</v>
       </c>
     </row>
@@ -933,10 +976,10 @@
       <c r="A34" s="1">
         <v>34</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="4">
         <v>0.33460000000000001</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <v>0.23599589730728779</v>
       </c>
     </row>
@@ -944,10 +987,10 @@
       <c r="A35" s="1">
         <v>39</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="4">
         <v>0.3281</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="4">
         <v>0.23040729660530521</v>
       </c>
     </row>
@@ -955,10 +998,10 @@
       <c r="A36" s="1">
         <v>44</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="4">
         <v>0.32450000000000001</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <v>0.2257875491337997</v>
       </c>
     </row>
@@ -966,10 +1009,10 @@
       <c r="A37" s="1">
         <v>50</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="4">
         <v>0.31819999999999998</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <v>0.2167143897418097</v>
       </c>
     </row>
